--- a/medicine/Sexualité et sexologie/Anne-Marie_Sohn/Anne-Marie_Sohn.xlsx
+++ b/medicine/Sexualité et sexologie/Anne-Marie_Sohn/Anne-Marie_Sohn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Marie Sohn est une historienne française née en 1946, spécialiste d'histoire du genre et d'histoire de la vie privée dans le monde occidental à l'époque contemporaine, professeure à l'École normale supérieure de Lyon avant son départ à la retraite.
 </t>
@@ -511,9 +523,11 @@
           <t>Enfance et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne-Marie Sohn nait à Grasse en 1946 dans une famille de travailleurs de la parfumerie depuis deux générations[1]. Sa mère, fille d'immigrés italiens travaille comme secrétaire à la parfumerie Jean Niel, où elle rencontre son père réfugié juif allemand qui y travaille comme ingénieur chimiste. Sa mère est catholique pratiquante et son père athée. Ils sont tous deux de gauche et votent communistes. Anne-Marie Sohn est scolarisée à l'école publique à Grasse puis à en classes préparatoires à Aix-en-Provence avant d'intégrer l'École normale supérieure de Fontenay-aux-Roses en 1965. Elle obtient l'agrégation d'histoire en 1969.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Sohn nait à Grasse en 1946 dans une famille de travailleurs de la parfumerie depuis deux générations. Sa mère, fille d'immigrés italiens travaille comme secrétaire à la parfumerie Jean Niel, où elle rencontre son père réfugié juif allemand qui y travaille comme ingénieur chimiste. Sa mère est catholique pratiquante et son père athée. Ils sont tous deux de gauche et votent communistes. Anne-Marie Sohn est scolarisée à l'école publique à Grasse puis à en classes préparatoires à Aix-en-Provence avant d'intégrer l'École normale supérieure de Fontenay-aux-Roses en 1965. Elle obtient l'agrégation d'histoire en 1969.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l'agrégation, elle enseigne en lycée dans la région parisienne puis en classes préparatoires au lycée Molière puis au lycée Henri-IV tout en préparant une thèse de 3e cycle sous la direction d'Annie Kriegel à Nanterre[1]. Elle est pionnière en histoire des femmes puis qu'elle termine en 1973 une thèse sur Féminisme et syndicalisme : les institutrices de la Fédération unitaire de l'enseignement de 1919 à 1935. Elle réalise ensuite une thèse d'État sous la direction de Maurice Agulhon à Paris I et soutenue en 1993 portant sur  Les rôles féminins dans la vie privée à l'époque de la IIIe République, rôles théoriques, rôles vécus[2]. Elle est alors maître assistante à Paris I. Une fois sa thèse d'État soutenue elle devient professeure d'histoire à l'université de Rouen en 1994, puis à l'ENS de Lyon en 2004.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'agrégation, elle enseigne en lycée dans la région parisienne puis en classes préparatoires au lycée Molière puis au lycée Henri-IV tout en préparant une thèse de 3e cycle sous la direction d'Annie Kriegel à Nanterre. Elle est pionnière en histoire des femmes puis qu'elle termine en 1973 une thèse sur Féminisme et syndicalisme : les institutrices de la Fédération unitaire de l'enseignement de 1919 à 1935. Elle réalise ensuite une thèse d'État sous la direction de Maurice Agulhon à Paris I et soutenue en 1993 portant sur  Les rôles féminins dans la vie privée à l'époque de la IIIe République, rôles théoriques, rôles vécus. Elle est alors maître assistante à Paris I. Une fois sa thèse d'État soutenue elle devient professeure d'histoire à l'université de Rouen en 1994, puis à l'ENS de Lyon en 2004.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chrysalides, femmes dans la vie privée, XIXe – XXe siècles, Publications de la Sorbonne, 1996, 2 vol., 1095 p.,  (ISSN 1243-0269)
 Du premier baiser à l'alcôve : La sexualité des Français au quotidien (1850-1950), Aubier, 1996, 310 p.
